--- a/data/trans_bre/KIDM_C_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_C_3_R-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>73,67%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-34,04%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-34,8%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>955,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 8,14</t>
+          <t>-26,92; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 1,5</t>
+          <t>0,0; 39,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 2,0</t>
+          <t>-21,07; 26,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 13,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-46,2; 505,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,68; 12,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-67,96; 27,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>73,67%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,78%</t>
+          <t>-34,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>-34,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>955,07%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 5,46</t>
+          <t>-2,0; 8,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 16,82</t>
+          <t>-15,55; 1,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 10,96</t>
+          <t>-10,47; 2,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 6,43</t>
+          <t>1,48; 13,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-85,15; 390,17</t>
+          <t>-46,2; 505,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 356,58</t>
+          <t>-64,68; 12,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 247,39</t>
+          <t>-67,96; 27,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>59,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>319,77%</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 0,0</t>
+          <t>-2,93; 8,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,28</t>
+          <t>0,44; 20,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 26,65</t>
+          <t>-9,28; 7,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-0,69; 9,27</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 369,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,66; 145,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>59,92%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>57,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>319,77%</t>
+          <t>23,87%</t>
         </is>
       </c>
     </row>
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 8,01</t>
+          <t>-4,63; 5,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 20,02</t>
+          <t>-0,24; 16,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 7,53</t>
+          <t>-2,58; 10,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,27</t>
+          <t>-6,15; 6,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,15; 390,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 369,64</t>
+          <t>-8,38; 356,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-66,66; 145,11</t>
+          <t>-30,71; 247,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">

--- a/data/trans_bre/KIDM_C_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_C_3_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 0,0</t>
+          <t>-27,53; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,28</t>
+          <t>0,0; 33,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 26,65</t>
+          <t>-22,48; 30,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 10,59</t>
+          <t>-5,02; 10,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 16,24</t>
+          <t>-3,62; 16,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 2,05</t>
+          <t>-14,73; 2,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 2,85</t>
+          <t>-11,97; 3,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,03; 320,69</t>
+          <t>-65,03; 438,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 322,06</t>
+          <t>-34,87; 371,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-90,41; 66,51</t>
+          <t>-89,55; 87,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 8,14</t>
+          <t>-2,23; 7,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 1,5</t>
+          <t>-15,14; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 2,0</t>
+          <t>-11,01; 2,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 13,19</t>
+          <t>1,67; 14,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,2; 505,45</t>
+          <t>-49,45; 460,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-64,68; 12,17</t>
+          <t>-62,57; 17,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,96; 27,24</t>
+          <t>-66,86; 34,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 8,01</t>
+          <t>-2,88; 7,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 20,02</t>
+          <t>-0,06; 19,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 7,53</t>
+          <t>-8,72; 8,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 9,27</t>
+          <t>-0,69; 8,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 369,64</t>
+          <t>-3,65; 336,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,66; 145,11</t>
+          <t>-63,31; 139,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 5,46</t>
+          <t>-4,31; 5,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 16,82</t>
+          <t>-0,87; 16,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 10,96</t>
+          <t>-2,22; 12,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 6,43</t>
+          <t>-5,81; 6,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-85,15; 390,17</t>
+          <t>-81,28; 425,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 356,58</t>
+          <t>-8,49; 321,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 247,39</t>
+          <t>-29,35; 257,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 4,05</t>
+          <t>-1,28; 4,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 7,88</t>
+          <t>-0,67; 8,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,94</t>
+          <t>-4,89; 2,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 5,62</t>
+          <t>-0,51; 5,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 139,95</t>
+          <t>-26,11; 152,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 77,65</t>
+          <t>-5,67; 81,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 36,91</t>
+          <t>-40,75; 34,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 605,4</t>
+          <t>-23,62; 532,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/KIDM_C_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_C_3_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 0,0</t>
+          <t>-31,45; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,13</t>
+          <t>0,0; 41,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 30,54</t>
+          <t>-21,73; 29,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 10,89</t>
+          <t>-5,22; 10,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 16,26</t>
+          <t>-4,32; 16,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 2,44</t>
+          <t>-14,29; 2,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 3,07</t>
+          <t>-11,89; 2,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,03; 438,21</t>
+          <t>-70,77; 319,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,87; 371,28</t>
+          <t>-34,23; 377,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-89,55; 87,51</t>
+          <t>-89,64; 82,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 7,96</t>
+          <t>-2,28; 7,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 1,8</t>
+          <t>-14,56; 1,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 2,41</t>
+          <t>-11,12; 2,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 14,37</t>
+          <t>0,91; 12,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,45; 460,37</t>
+          <t>-47,32; 464,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,57; 17,94</t>
+          <t>-62,33; 16,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-66,86; 34,98</t>
+          <t>-68,51; 32,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 7,5</t>
+          <t>-2,87; 7,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 19,36</t>
+          <t>-1,13; 19,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 8,54</t>
+          <t>-8,84; 7,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 8,81</t>
+          <t>-0,83; 8,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 336,97</t>
+          <t>-10,84; 305,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-63,31; 139,15</t>
+          <t>-62,32; 151,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,37 +1068,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 5,39</t>
+          <t>-4,9; 5,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 16,19</t>
+          <t>-1,71; 16,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 12,45</t>
+          <t>-2,88; 11,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 6,43</t>
+          <t>-6,66; 6,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-81,28; 425,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 321,85</t>
+          <t>-19,05; 322,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 257,52</t>
+          <t>-32,85; 269,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 4,37</t>
+          <t>-1,59; 3,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 8,1</t>
+          <t>-0,61; 7,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 2,72</t>
+          <t>-4,57; 3,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 5,1</t>
+          <t>-0,39; 5,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 152,96</t>
+          <t>-32,37; 134,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 81,36</t>
+          <t>-5,94; 76,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 34,4</t>
+          <t>-38,22; 37,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 532,77</t>
+          <t>-26,93; 573,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/KIDM_C_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_C_3_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>-38,63%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,54%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 0,0</t>
+          <t>-6,25; 7,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,35</t>
+          <t>-1,37; 15,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 29,72</t>
+          <t>-12,53; 3,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,98; 3,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,44; 280,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,01; 412,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,2; 68,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>73,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,24%</t>
+          <t>-34,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-51,88%</t>
+          <t>-34,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-61,96%</t>
+          <t>961,13%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 10,79</t>
+          <t>-2,0; 8,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 16,26</t>
+          <t>-15,55; 1,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 2,66</t>
+          <t>-10,47; 2,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 2,41</t>
+          <t>1,57; 13,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 319,46</t>
+          <t>-46,2; 505,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 377,74</t>
+          <t>-64,68; 12,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-89,64; 82,91</t>
+          <t>-67,96; 27,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,8</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>73,67%</t>
+          <t>59,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-34,04%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-34,8%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>955,07%</t>
+          <t>217,19%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 7,32</t>
+          <t>-2,93; 8,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 1,85</t>
+          <t>0,44; 20,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 2,49</t>
+          <t>-9,28; 7,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 12,9</t>
+          <t>-1,47; 6,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 464,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-62,33; 16,31</t>
+          <t>0,66; 369,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-68,51; 32,8</t>
+          <t>-66,66; 145,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>59,92%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,71%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,32%</t>
+          <t>57,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>319,77%</t>
+          <t>27,14%</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 7,51</t>
+          <t>-4,63; 5,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 19,61</t>
+          <t>-0,24; 16,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 7,89</t>
+          <t>-2,58; 10,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 8,51</t>
+          <t>-5,64; 6,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,15; 390,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 305,81</t>
+          <t>-8,38; 356,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,32; 151,03</t>
+          <t>-30,71; 247,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>30,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,78%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>-9,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>95,86%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 5,04</t>
+          <t>-1,23; 4,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 16,11</t>
+          <t>-0,82; 7,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 11,6</t>
+          <t>-4,68; 2,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 6,97</t>
+          <t>-0,94; 5,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,9; 139,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 322,36</t>
+          <t>-7,65; 77,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 269,77</t>
+          <t>-38,98; 36,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,27; 561,79</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>30,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>30,1%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-9,24%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>113,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,59; 3,97</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 7,62</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 3,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,39; 5,17</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-32,37; 134,66</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 76,58</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-38,22; 37,08</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-26,93; 573,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
